--- a/biology/Zoologie/Fauvette/Fauvette.xlsx
+++ b/biology/Zoologie/Fauvette/Fauvette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fauvette est un nom vernaculaire donné en français à différents passereaux, principalement de la famille des sylviidés.
 </t>
@@ -511,7 +523,9 @@
           <t>Les différences</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au sens strict, les fauvettes sont les 18 espèces du genre Sylvia.
 Les fauvettes (Sylvia) sont de petits oiseaux à bec court, tête souvent bombée et queue étroite, parfois redressée. En France, la Fauvette à tête noire, la Fauvette mélanocéphale sont présentes toute l'année alors que la Fauvette des jardins, la Fauvette grisette et la Fauvette babillarde sont présentes en été.
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Noms normalisés
-Fauvette d'Arabie – Sylvia leucomelaena
+          <t>Noms normalisés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fauvette d'Arabie – Sylvia leucomelaena
 Fauvette de l'Atlas – Sylvia deserticola
 Fauvette babillarde – Sylvia curruca
 Fauvette des Baléares – Sylvia balearica
@@ -572,9 +591,43 @@
 Fauvette pitchou – Sylvia undata
 Fauvette de Rüppell – Sylvia rueppelli
 Fauvette sarde – Sylvia sarda
-Fauvette à tête noire – Sylvia atricapilla
-Autres passereaux appelés « fauvette »
-Note : certains noms peuvent être en double
+Fauvette à tête noire – Sylvia atricapilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fauvette</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fauvette</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces appelées « fauvette »</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres passereaux appelés « fauvette »</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Note : certains noms peuvent être en double
 Fauvette à ailes blanches - Bradypterus carpalis
 Fauvette aquatique
 Fauvette aquatique roussâtre - Acrocephalus rufescens
@@ -599,31 +652,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Fauvette</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fauvette</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>La fauvette dans la culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La cantatrice américaine Marie Van Zandt était surnommée « Miss Fauvette » par le public.
 La Fauvette est un air pour soprano de l'opéra-ballet Zémire et Azor, d'André Grétry.
